--- a/linux-kernel/ULK/sync.xlsx
+++ b/linux-kernel/ULK/sync.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21660" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>内核抢占概念</t>
   </si>
@@ -176,187 +176,63 @@
   </si>
   <si>
     <t>此句汇编本身就是原子的</t>
+  </si>
+  <si>
+    <t>同步原语：顺序锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步原语：RCU 读-拷贝-更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>读线程需要禁止内核强占后进行读操作，读完毕后开启内核强占</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写线程需要先拷贝指针指向的结构，然后更新，最后更新新指针，释放旧指针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写线程总不被阻塞，读线程读完后进行检查，否则重新读</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,194 +245,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -564,251 +254,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,57 +271,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -884,7 +285,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -905,13 +306,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1047750" y="2695575"/>
-          <a:ext cx="2673350" cy="2218690"/>
+          <a:off x="1190625" y="2695575"/>
+          <a:ext cx="3044825" cy="2218690"/>
           <a:chOff x="525" y="4140"/>
           <a:chExt cx="4210" cy="3494"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
           <xdr:cNvCxnSpPr/>
@@ -960,7 +361,7 @@
             <a:chExt cx="4210" cy="3495"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
@@ -975,7 +376,7 @@
             </a:prstGeom>
             <a:ln w="3175">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="4C4C4C"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </xdr:spPr>
@@ -1100,11 +501,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
                 <a:t>CPU0</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
             <xdr:cNvCxnSpPr/>
@@ -1140,7 +540,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Text Box 5"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -1281,11 +681,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>syscall1</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
             <xdr:cNvCxnSpPr/>
@@ -1321,7 +720,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="Text Box 8"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -1462,11 +861,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int5</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
             <xdr:cNvCxnSpPr/>
@@ -1502,7 +900,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
             <xdr:cNvCxnSpPr/>
@@ -1538,7 +936,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="Text Box 11"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -1679,11 +1077,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int6</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
             <xdr:cNvCxnSpPr/>
@@ -1719,7 +1116,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
             <xdr:cNvCxnSpPr/>
@@ -1755,7 +1152,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="Text Box 14"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -1896,11 +1293,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int5</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
             <xdr:cNvCxnSpPr/>
@@ -1936,7 +1332,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
             <xdr:cNvCxnSpPr/>
@@ -1972,7 +1368,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="Text Box 17"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -2113,11 +1509,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>syscall1/2..</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
             <xdr:cNvCxnSpPr/>
@@ -2153,7 +1548,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="Text Box 19"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -2294,7 +1689,6 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>user proc</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2322,13 +1716,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352925" y="2724150"/>
-          <a:ext cx="2673350" cy="2218690"/>
+          <a:off x="4953000" y="2724150"/>
+          <a:ext cx="3073400" cy="2218690"/>
           <a:chOff x="525" y="4140"/>
           <a:chExt cx="4210" cy="3494"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
           <xdr:cNvCxnSpPr/>
@@ -2377,7 +1771,7 @@
             <a:chExt cx="4210" cy="3495"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="Rectangle 25"/>
             <xdr:cNvSpPr/>
@@ -2392,7 +1786,7 @@
             </a:prstGeom>
             <a:ln w="3175">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="4C4C4C"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </xdr:spPr>
@@ -2517,11 +1911,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
                 <a:t>CPU1</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
             <xdr:cNvCxnSpPr/>
@@ -2557,7 +1950,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="Text Box 27"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -2698,11 +2091,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>syscall2</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
             <xdr:cNvCxnSpPr/>
@@ -2738,7 +2130,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="Text Box 29"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -2879,11 +2271,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int1</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
             <xdr:cNvCxnSpPr/>
@@ -2919,7 +2310,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
             <xdr:cNvCxnSpPr/>
@@ -2955,7 +2346,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="Text Box 32"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3096,11 +2487,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int2</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
             <xdr:cNvCxnSpPr/>
@@ -3136,7 +2526,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
             <xdr:cNvCxnSpPr/>
@@ -3172,7 +2562,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="Text Box 35"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3313,11 +2703,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>int2</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
             <xdr:cNvCxnSpPr/>
@@ -3353,7 +2742,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
             <xdr:cNvCxnSpPr/>
@@ -3389,7 +2778,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="Text Box 38"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3530,11 +2919,10 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>syscall2/3..</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
             <xdr:cNvCxnSpPr/>
@@ -3570,7 +2958,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="Text Box 40"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3711,7 +3099,6 @@
                 <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                 <a:t>user proc</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3732,7 +3119,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr>
@@ -3785,7 +3172,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Text Box 42"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3926,7 +3313,6 @@
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>这个位置可能发生内核抢占，执行其他系统调用，那么之前的调用和现在的调用造成并发假象</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3945,7 +3331,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr>
@@ -3993,7 +3379,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -4240,224 +3626,225 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:W84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:4">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:4">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:4">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:4">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="1:4">
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="1:4">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="5:5">
+    <row r="42" spans="1:5">
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="1:5">
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="1:5">
       <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="1:5">
       <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="1:5">
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="1:4">
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="1:4">
       <c r="C50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="1:4">
       <c r="D51" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="1:4">
       <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:4">
       <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="1:4">
       <c r="C57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="1:4">
       <c r="C59" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="1:4">
       <c r="C60" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="1:4">
       <c r="C61" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:23">
       <c r="C65" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:23">
       <c r="C66" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:23">
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:23">
       <c r="C69" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
+    <row r="70" spans="3:23">
       <c r="E70" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="3:23">
       <c r="E71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
+    <row r="72" spans="3:23">
       <c r="E72" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="6:16">
+    <row r="73" spans="3:23">
       <c r="F73" s="1" t="s">
         <v>40</v>
       </c>
@@ -4465,7 +3852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="6:17">
+    <row r="74" spans="3:23">
       <c r="F74" s="1" t="s">
         <v>39</v>
       </c>
@@ -4473,7 +3860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="7:23">
+    <row r="75" spans="3:23">
       <c r="G75" s="1" t="s">
         <v>43</v>
       </c>
@@ -4484,42 +3871,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="6:6">
+    <row r="76" spans="3:23">
       <c r="F76" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="3:23">
       <c r="G77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="3:23">
       <c r="G78" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="3:23">
       <c r="H79" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="6:6">
+    <row r="80" spans="3:23">
       <c r="F80" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="5:5">
+    <row r="81" spans="1:10">
       <c r="E81" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="1:10">
       <c r="C82" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="5:10">
+    <row r="83" spans="1:10">
       <c r="E83" s="1" t="s">
         <v>52</v>
       </c>
@@ -4527,14 +3914,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="5:5">
+    <row r="84" spans="1:10">
       <c r="E84" s="1" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="2"/>
+      <c r="C87" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="C89" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="C90" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>